--- a/data/ypol_plith.xlsx
+++ b/data/ypol_plith.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcha\Desktop\IronHack\hellas_db_mellon\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7844508C-DD13-48D8-B432-0E7B903A3115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D4F32E-9F08-4E6F-A53E-209A41779E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="174">
   <si>
     <t xml:space="preserve"> 1.1.2002</t>
   </si>
@@ -554,6 +554,9 @@
   <si>
     <t>year</t>
   </si>
+  <si>
+    <t>ΑΤΤΙΚΗ</t>
+  </si>
 </sst>
 </file>
 
@@ -805,19 +808,19 @@
     <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1498,9 +1501,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C133130-7EC7-4F3A-9F57-BD1592C16FE0}">
   <dimension ref="A1:AZ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AQ1" sqref="AQ1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="43" max="43" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1630,7 +1638,7 @@
         <v>40</v>
       </c>
       <c r="AQ1" s="18" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="AR1" s="27" t="s">
         <v>37</v>
@@ -8246,266 +8254,266 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="23"/>
     </row>
     <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="22"/>
     </row>
     <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="22"/>
     </row>
     <row r="19" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="61"/>
-      <c r="S19" s="61"/>
-      <c r="T19" s="61"/>
-      <c r="U19" s="61"/>
-      <c r="V19" s="61"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="60"/>
+      <c r="V19" s="60"/>
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="61"/>
-      <c r="S20" s="61"/>
-      <c r="T20" s="61"/>
-      <c r="U20" s="61"/>
-      <c r="V20" s="61"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="60"/>
+      <c r="S20" s="60"/>
+      <c r="T20" s="60"/>
+      <c r="U20" s="60"/>
+      <c r="V20" s="60"/>
     </row>
     <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="60"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="60"/>
-      <c r="U21" s="60"/>
-      <c r="V21" s="60"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="57"/>
+      <c r="V22" s="57"/>
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="59"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="59"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="57"/>
+      <c r="V23" s="57"/>
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
@@ -13407,6 +13415,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
     <mergeCell ref="A22:V22"/>
     <mergeCell ref="A23:V23"/>
     <mergeCell ref="A21:V21"/>
@@ -13415,14 +13431,6 @@
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A19:V19"/>
     <mergeCell ref="A20:V20"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13548,13 +13556,13 @@
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="22"/>
@@ -13574,13 +13582,13 @@
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="22"/>
@@ -13600,13 +13608,13 @@
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="22"/>
@@ -13626,13 +13634,13 @@
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="22"/>
@@ -13652,13 +13660,13 @@
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="22"/>
@@ -13678,13 +13686,13 @@
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="23"/>
@@ -13704,13 +13712,13 @@
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="22"/>
@@ -13730,13 +13738,13 @@
       <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="22"/>
@@ -13756,13 +13764,13 @@
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="22"/>
@@ -13782,13 +13790,13 @@
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="22"/>
@@ -13808,13 +13816,13 @@
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="22"/>
@@ -13906,134 +13914,134 @@
       <c r="V18" s="1"/>
     </row>
     <row r="19" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="61"/>
-      <c r="S19" s="61"/>
-      <c r="T19" s="61"/>
-      <c r="U19" s="61"/>
-      <c r="V19" s="61"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="60"/>
+      <c r="V19" s="60"/>
     </row>
     <row r="20" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="61"/>
-      <c r="S20" s="61"/>
-      <c r="T20" s="61"/>
-      <c r="U20" s="61"/>
-      <c r="V20" s="61"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="60"/>
+      <c r="S20" s="60"/>
+      <c r="T20" s="60"/>
+      <c r="U20" s="60"/>
+      <c r="V20" s="60"/>
     </row>
     <row r="21" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="60"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="60"/>
-      <c r="U21" s="60"/>
-      <c r="V21" s="60"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
     </row>
     <row r="22" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="57"/>
+      <c r="V22" s="57"/>
     </row>
     <row r="23" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="59"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="59"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="57"/>
+      <c r="V23" s="57"/>
     </row>
     <row r="24" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
@@ -18765,6 +18773,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A20:V20"/>
+    <mergeCell ref="A21:V21"/>
+    <mergeCell ref="A23:V23"/>
+    <mergeCell ref="A22:V22"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A19:V19"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A11:E11"/>
@@ -18773,14 +18789,6 @@
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A20:V20"/>
-    <mergeCell ref="A21:V21"/>
-    <mergeCell ref="A23:V23"/>
-    <mergeCell ref="A22:V22"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A19:V19"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="B24:U24">
@@ -18917,13 +18925,13 @@
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="22"/>
@@ -18943,13 +18951,13 @@
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="22"/>
@@ -18969,13 +18977,13 @@
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="22"/>
@@ -18995,13 +19003,13 @@
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="22"/>
@@ -19021,13 +19029,13 @@
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="22"/>
@@ -19047,13 +19055,13 @@
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="23"/>
@@ -19073,13 +19081,13 @@
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="22"/>
@@ -19099,13 +19107,13 @@
       <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="22"/>
@@ -19125,13 +19133,13 @@
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="22"/>
@@ -19151,13 +19159,13 @@
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="22"/>
@@ -19177,13 +19185,13 @@
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="22"/>
@@ -19277,134 +19285,134 @@
       </c>
     </row>
     <row r="19" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="61"/>
-      <c r="S19" s="61"/>
-      <c r="T19" s="61"/>
-      <c r="U19" s="61"/>
-      <c r="V19" s="61"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="60"/>
+      <c r="V19" s="60"/>
     </row>
     <row r="20" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="61"/>
-      <c r="S20" s="61"/>
-      <c r="T20" s="61"/>
-      <c r="U20" s="61"/>
-      <c r="V20" s="61"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="60"/>
+      <c r="S20" s="60"/>
+      <c r="T20" s="60"/>
+      <c r="U20" s="60"/>
+      <c r="V20" s="60"/>
     </row>
     <row r="21" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="60"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="60"/>
-      <c r="U21" s="60"/>
-      <c r="V21" s="60"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
     </row>
     <row r="22" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="57"/>
+      <c r="V22" s="57"/>
     </row>
     <row r="23" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="59"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="59"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="57"/>
+      <c r="V23" s="57"/>
     </row>
     <row r="24" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
@@ -24135,6 +24143,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
     <mergeCell ref="A20:V20"/>
     <mergeCell ref="A21:V21"/>
     <mergeCell ref="A22:V22"/>
@@ -24145,12 +24159,6 @@
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A19:V19"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="B24:U24">
